--- a/Files/budget.xlsx
+++ b/Files/budget.xlsx
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="34" t="n">
         <v>0</v>

--- a/Files/budget.xlsx
+++ b/Files/budget.xlsx
@@ -1037,7 +1037,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="25.71" customWidth="1" style="24" min="1" max="1"/>
     <col width="11.29" customWidth="1" style="25" min="2" max="13"/>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="34" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="34" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G29" s="34" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G82" s="34" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="34" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G84" s="34" t="n">
         <v>0</v>

--- a/Files/budget.xlsx
+++ b/Files/budget.xlsx
@@ -1033,11 +1033,11 @@
   </sheetPr>
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A93" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.59375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="25.71" customWidth="1" style="24" min="1" max="1"/>
     <col width="11.29" customWidth="1" style="25" min="2" max="13"/>
@@ -1172,7 +1172,7 @@
         <v>9631</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0</v>
+        <v>1690</v>
       </c>
       <c r="H5" s="34" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="34" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="34" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G45" s="34" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>165</v>
       </c>
       <c r="G71" s="34" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H71" s="34" t="n">
         <v>0</v>

--- a/Files/budget.xlsx
+++ b/Files/budget.xlsx
@@ -1033,8 +1033,8 @@
   </sheetPr>
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A93" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A69" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H71" activeCellId="0" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.59375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="34" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="H66" s="34" t="n">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>165</v>
       </c>
       <c r="G71" s="34" t="n">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="H71" s="34" t="n">
         <v>0</v>
@@ -4346,7 +4346,7 @@
         <v>600</v>
       </c>
       <c r="G84" s="34" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="H84" s="34" t="n">
         <v>0</v>

--- a/Files/budget.xlsx
+++ b/Files/budget.xlsx
@@ -3795,7 +3795,7 @@
         <v>165</v>
       </c>
       <c r="G71" s="34" t="n">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="H71" s="34" t="n">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="34" t="n">
-        <v>0</v>
+        <v>1585</v>
       </c>
       <c r="H81" s="34" t="n">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>50</v>
       </c>
       <c r="G82" s="34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H82" s="34" t="n">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="34" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H83" s="34" t="n">
         <v>0</v>

--- a/Files/budget.xlsx
+++ b/Files/budget.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -447,13 +448,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="N1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V10" activeCellId="0" sqref="V10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11:AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="16.67" customWidth="1" style="2" min="18" max="18"/>
     <col width="18.66" customWidth="1" style="2" min="19" max="19"/>
@@ -482,7 +483,7 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>home_mortgage</t>
+          <t>rent</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
@@ -562,42 +563,47 @@
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
+          <t>vacation_fun</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
           <t>phone_bill</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>internet</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" s="2" t="inlineStr">
         <is>
           <t>clothes</t>
         </is>
       </c>
-      <c r="X1" s="2" t="inlineStr">
+      <c r="Y1" s="2" t="inlineStr">
         <is>
           <t>barber</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Z1" s="2" t="inlineStr">
         <is>
           <t>toiletry</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AA1" s="2" t="inlineStr">
         <is>
           <t>gifts</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>savings</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>tax</t>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Loan-out</t>
         </is>
       </c>
     </row>
@@ -608,28 +614,28 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>7020</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
+        <v>6094</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="n">
         <v>0</v>
@@ -662,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2" s="2" t="n">
         <v>0</v>
@@ -677,16 +683,19 @@
         <v>0</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>0</v>
+        <v>375</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="3">
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
@@ -750,30 +759,33 @@
         <v>0</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="W3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="Y3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -787,25 +799,25 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -817,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
@@ -838,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="W4" s="2" t="n">
         <v>0</v>
@@ -853,15 +865,18 @@
         <v>0</v>
       </c>
       <c r="Y4" s="2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA4" s="2" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -952,6 +967,9 @@
       <c r="AB5" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="3">
       <c r="A6" s="2" t="inlineStr">
@@ -960,13 +978,13 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>9631</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -975,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -1005,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -1017,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
@@ -1032,12 +1050,15 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,10 +1069,10 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -1081,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2" t="n">
         <v>0</v>
@@ -1105,27 +1126,30 @@
         <v>0</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,7 +1160,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
@@ -1169,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -1187,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
         <v>0</v>
@@ -1211,9 +1235,12 @@
         <v>0</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1224,13 +1251,13 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1691</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
@@ -1287,22 +1314,25 @@
         <v>0</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="2" t="n">
-        <v>230</v>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="3">
@@ -1392,6 +1422,9 @@
       <c r="AB10" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="AC10" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="3">
       <c r="A11" s="2" t="inlineStr">
@@ -1480,6 +1513,9 @@
       <c r="AB11" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="AC11" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="3">
       <c r="A12" s="2" t="inlineStr">
@@ -1568,6 +1604,9 @@
       <c r="AB12" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="AC12" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="3">
       <c r="A13" s="2" t="inlineStr">
@@ -1654,6 +1693,1281 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:AC13"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="B11:AC11 I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="16.67" customWidth="1" style="2" min="18" max="18"/>
+    <col width="18.66" customWidth="1" style="2" min="19" max="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>wage</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>dividends</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>groceries</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>rent</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>home_insurance</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>home_repairs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>home_bills</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>bus_fare</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>fuel</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>car_repair</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>parking</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>hobbies</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>books_games</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>movies_concerts</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>health_insurance</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>medication</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>vacation_transport</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>vacation_accomodation</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>vacation_food</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>vacation_fun</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>phone_bill</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>clothes</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>barber</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>toiletry</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>savings</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Loan-out</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>JAN</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>FEB</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>APR</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>9631</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>640</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>2400</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="W6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>JUN</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>784</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="W7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>1585</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>JUL</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1690</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>1290</v>
+      </c>
+      <c r="W8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>AUG</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>705</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>SEP</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1650</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>928</v>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>476</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>610</v>
+      </c>
+      <c r="W10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="3">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>OCT</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="3">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>NOV</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>299</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="P12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S12" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="W12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>DEC</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
